--- a/bin/sheets/main_db/teams/BAN/PlayerPerformance_4598.xlsx
+++ b/bin/sheets/main_db/teams/BAN/PlayerPerformance_4598.xlsx
@@ -7,8 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,6 +428,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_HAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BOWL_STYLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4598</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Mehidy Hasan Miraz</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Right Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Right Arm Off Break</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -452,7 +517,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -492,7 +557,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
           <t>25/03/2017</t>
@@ -500,7 +564,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4011</t>
+          <t>4011</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -540,7 +604,6 @@
           <t>2</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
           <t>28/03/2017</t>
@@ -548,7 +611,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4012</t>
+          <t>4012</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -600,7 +663,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4014</t>
+          <t>4014</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -640,7 +703,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
           <t>12/05/2017</t>
@@ -648,7 +710,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4022</t>
+          <t>4022</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -700,7 +762,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4024</t>
+          <t>4024</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -752,7 +814,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4035</t>
+          <t>4035</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -804,7 +866,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4086</t>
+          <t>4086</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -856,7 +918,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4124</t>
+          <t>4124</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -896,7 +958,6 @@
           <t>9</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
           <t>22/07/2018</t>
@@ -904,7 +965,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4179</t>
+          <t>4179</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -944,7 +1005,6 @@
           <t>10</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
           <t>25/07/2018</t>
@@ -952,7 +1012,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4180</t>
+          <t>4180</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -992,7 +1052,6 @@
           <t>11</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
           <t>28/07/2018</t>
@@ -1000,7 +1059,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4181</t>
+          <t>4181</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1052,7 +1111,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4193</t>
+          <t>4193</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1104,7 +1163,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4198</t>
+          <t>4198</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1156,7 +1215,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4199</t>
+          <t>4199</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1208,7 +1267,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4202</t>
+          <t>4202</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1260,7 +1319,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4204</t>
+          <t>4204</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1312,7 +1371,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4205</t>
+          <t>4205</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1364,7 +1423,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4214</t>
+          <t>4214</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1404,7 +1463,6 @@
           <t>19</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr">
         <is>
           <t>24/10/2018</t>
@@ -1412,7 +1470,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4217</t>
+          <t>4217</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1452,7 +1510,6 @@
           <t>20</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr">
         <is>
           <t>09/12/2018</t>
@@ -1460,7 +1517,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4228</t>
+          <t>4228</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1512,7 +1569,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4229</t>
+          <t>4229</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1552,7 +1609,6 @@
           <t>22</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr">
         <is>
           <t>14/12/2018</t>
@@ -1560,7 +1616,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4230</t>
+          <t>4230</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1612,7 +1668,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4250</t>
+          <t>4250</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1664,7 +1720,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4251</t>
+          <t>4251</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1716,7 +1772,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4252</t>
+          <t>4252</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1756,7 +1812,6 @@
           <t>26</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr">
         <is>
           <t>07/05/2019</t>
@@ -1764,7 +1819,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4286</t>
+          <t>4286</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1804,7 +1859,6 @@
           <t>27</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr">
         <is>
           <t>13/05/2019</t>
@@ -1812,7 +1866,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4293</t>
+          <t>4293</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1852,7 +1906,6 @@
           <t>28</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr">
         <is>
           <t>17/05/2019</t>
@@ -1860,7 +1913,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4296</t>
+          <t>4296</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1912,7 +1965,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4307</t>
+          <t>4307</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1964,7 +2017,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4311</t>
+          <t>4311</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2016,7 +2069,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4314</t>
+          <t>4314</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2056,7 +2109,6 @@
           <t>32</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr">
         <is>
           <t>17/06/2019</t>
@@ -2064,7 +2116,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4325</t>
+          <t>4325</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2116,7 +2168,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4329</t>
+          <t>4329</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2156,7 +2208,6 @@
           <t>34</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr">
         <is>
           <t>24/06/2019</t>
@@ -2164,7 +2215,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4335</t>
+          <t>4335</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2216,7 +2267,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4349</t>
+          <t>4349</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2268,7 +2319,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4356</t>
+          <t>4356</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2320,7 +2371,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4357</t>
+          <t>4357</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2372,7 +2423,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4358</t>
+          <t>4358</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2424,7 +2475,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4416</t>
+          <t>4416</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2476,7 +2527,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4418</t>
+          <t>4418</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2516,7 +2567,6 @@
           <t>41</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr">
         <is>
           <t>06/03/2020</t>
@@ -2524,7 +2574,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4420</t>
+          <t>4420</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2564,7 +2614,6 @@
           <t>42</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr">
         <is>
           <t>20/01/2021</t>
@@ -2572,7 +2621,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4443</t>
+          <t>4443</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2612,7 +2661,6 @@
           <t>43</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr"/>
       <c r="C44" t="inlineStr">
         <is>
           <t>22/01/2021</t>
@@ -2620,7 +2668,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4445</t>
+          <t>4445</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2660,7 +2708,6 @@
           <t>44</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr">
         <is>
           <t>25/01/2021</t>
@@ -2668,7 +2715,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4447</t>
+          <t>4447</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2720,7 +2767,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4452</t>
+          <t>4452</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2760,7 +2807,6 @@
           <t>46</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr"/>
       <c r="C47" t="inlineStr">
         <is>
           <t>23/03/2021</t>
@@ -2768,7 +2814,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4453</t>
+          <t>4453</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2820,7 +2866,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4455</t>
+          <t>4455</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2860,7 +2906,6 @@
           <t>48</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr"/>
       <c r="C49" t="inlineStr">
         <is>
           <t>23/05/2021</t>
@@ -2868,7 +2913,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4463</t>
+          <t>4463</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2920,7 +2965,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4464</t>
+          <t>4464</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2972,7 +3017,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4465</t>
+          <t>4465</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -3024,7 +3069,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4477</t>
+          <t>4477</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -3076,7 +3121,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4479</t>
+          <t>4479</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -3128,7 +3173,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4537</t>
+          <t>4537</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -3168,7 +3213,6 @@
           <t>54</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr"/>
       <c r="C55" t="inlineStr">
         <is>
           <t>25/02/2022</t>
@@ -3176,7 +3220,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4538</t>
+          <t>4538</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -3228,7 +3272,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4539</t>
+          <t>4539</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -3280,7 +3324,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4550</t>
+          <t>4550</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -3332,7 +3376,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4557</t>
+          <t>4557</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -3372,7 +3416,6 @@
           <t>58</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr"/>
       <c r="C59" t="inlineStr">
         <is>
           <t>23/03/2022</t>
@@ -3380,7 +3423,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4559</t>
+          <t>4559</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -3420,7 +3463,6 @@
           <t>59</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr"/>
       <c r="C60" t="inlineStr">
         <is>
           <t>10/07/2022</t>
@@ -3428,7 +3470,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4606</t>
+          <t>4606</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -3468,7 +3510,6 @@
           <t>60</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr"/>
       <c r="C61" t="inlineStr">
         <is>
           <t>13/07/2022</t>
@@ -3476,7 +3517,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4611</t>
+          <t>4611</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -3516,7 +3557,6 @@
           <t>61</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr"/>
       <c r="C62" t="inlineStr">
         <is>
           <t>16/07/2022</t>
@@ -3524,7 +3564,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4616</t>
+          <t>4616</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -3564,7 +3604,6 @@
           <t>62</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr"/>
       <c r="C63" t="inlineStr">
         <is>
           <t>05/08/2022</t>
@@ -3572,7 +3611,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4626</t>
+          <t>4626</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3624,7 +3663,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4627</t>
+          <t>4627</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3676,7 +3715,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4628</t>
+          <t>4628</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3728,7 +3767,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4679</t>
+          <t>4679</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3780,7 +3819,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4682</t>
+          <t>4682</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3832,7 +3871,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4685</t>
+          <t>4685</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3884,7 +3923,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4711</t>
+          <t>4711</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -3936,7 +3975,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4713</t>
+          <t>4713</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -3988,7 +4027,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4717</t>
+          <t>4717</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -4028,7 +4067,6 @@
           <t>71</t>
         </is>
       </c>
-      <c r="B72" t="inlineStr"/>
       <c r="C72" t="inlineStr">
         <is>
           <t>23/03/2023</t>
@@ -4036,7 +4074,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4734</t>
+          <t>4734</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -4075,7 +4113,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4097,7 +4135,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -4134,7 +4172,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4011</t>
+          <t>4011</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -4171,7 +4209,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4012</t>
+          <t>4012</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -4208,7 +4246,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4014</t>
+          <t>4014</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -4245,7 +4283,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4024</t>
+          <t>4024</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -4282,7 +4320,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4035</t>
+          <t>4035</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -4319,7 +4357,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4086</t>
+          <t>4086</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -4356,7 +4394,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4124</t>
+          <t>4124</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -4393,7 +4431,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4179</t>
+          <t>4179</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -4430,7 +4468,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4180</t>
+          <t>4180</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -4467,7 +4505,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4181</t>
+          <t>4181</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -4504,7 +4542,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4193</t>
+          <t>4193</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -4541,7 +4579,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4198</t>
+          <t>4198</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -4578,7 +4616,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4199</t>
+          <t>4199</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -4615,7 +4653,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4202</t>
+          <t>4202</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -4652,7 +4690,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4204</t>
+          <t>4204</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -4689,7 +4727,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4205</t>
+          <t>4205</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -4726,7 +4764,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4214</t>
+          <t>4214</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -4763,7 +4801,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4217</t>
+          <t>4217</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -4800,7 +4838,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4228</t>
+          <t>4228</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -4837,7 +4875,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4229</t>
+          <t>4229</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -4874,7 +4912,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4230</t>
+          <t>4230</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -4911,7 +4949,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4250</t>
+          <t>4250</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -4948,7 +4986,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4251</t>
+          <t>4251</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -4985,7 +5023,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4252</t>
+          <t>4252</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -5022,7 +5060,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4286</t>
+          <t>4286</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -5059,7 +5097,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4293</t>
+          <t>4293</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -5096,7 +5134,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4296</t>
+          <t>4296</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -5133,7 +5171,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4307</t>
+          <t>4307</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -5170,7 +5208,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4311</t>
+          <t>4311</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -5207,7 +5245,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4314</t>
+          <t>4314</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -5244,7 +5282,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4325</t>
+          <t>4325</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -5281,7 +5319,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4329</t>
+          <t>4329</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -5318,7 +5356,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4335</t>
+          <t>4335</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -5355,7 +5393,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4349</t>
+          <t>4349</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -5392,7 +5430,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4356</t>
+          <t>4356</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -5429,7 +5467,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4357</t>
+          <t>4357</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -5466,7 +5504,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4358</t>
+          <t>4358</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -5503,7 +5541,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4416</t>
+          <t>4416</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -5540,7 +5578,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4418</t>
+          <t>4418</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -5577,7 +5615,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4420</t>
+          <t>4420</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -5614,7 +5652,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4443</t>
+          <t>4443</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -5651,7 +5689,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4445</t>
+          <t>4445</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -5688,7 +5726,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4447</t>
+          <t>4447</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -5725,7 +5763,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4452</t>
+          <t>4452</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -5762,7 +5800,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4453</t>
+          <t>4453</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -5799,7 +5837,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4455</t>
+          <t>4455</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -5836,7 +5874,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4463</t>
+          <t>4463</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -5873,7 +5911,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4464</t>
+          <t>4464</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -5910,7 +5948,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4465</t>
+          <t>4465</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -5947,7 +5985,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4477</t>
+          <t>4477</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -5984,7 +6022,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4479</t>
+          <t>4479</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -6021,7 +6059,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4537</t>
+          <t>4537</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -6058,7 +6096,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4538</t>
+          <t>4538</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -6095,7 +6133,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4539</t>
+          <t>4539</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -6132,7 +6170,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4550</t>
+          <t>4550</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -6169,7 +6207,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4557</t>
+          <t>4557</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -6206,7 +6244,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4559</t>
+          <t>4559</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -6243,7 +6281,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4606</t>
+          <t>4606</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -6280,7 +6318,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4611</t>
+          <t>4611</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -6317,7 +6355,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4616</t>
+          <t>4616</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -6354,7 +6392,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4626</t>
+          <t>4626</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -6391,7 +6429,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4627</t>
+          <t>4627</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -6428,7 +6466,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4628</t>
+          <t>4628</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -6465,7 +6503,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4679</t>
+          <t>4679</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -6502,7 +6540,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4682</t>
+          <t>4682</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -6539,7 +6577,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4685</t>
+          <t>4685</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -6576,7 +6614,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4711</t>
+          <t>4711</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -6613,7 +6651,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4713</t>
+          <t>4713</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -6650,7 +6688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4717</t>
+          <t>4717</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -6687,7 +6725,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4734</t>
+          <t>4734</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -6713,6 +6751,555 @@
       <c r="G71" t="inlineStr">
         <is>
           <t>0/3</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4479</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>7</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2.48%</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4537</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>8</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>36.99%</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4538</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4539</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>8</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>3.13%</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4550</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>8</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>6.05%</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4557</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>8</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>19.59%</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4559</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>8</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4606</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4611</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>7</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4616</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>8</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4626</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>8</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4627</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>7</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>5.17%</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4628</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>7</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>5.47%</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4679</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>8</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>20.32%</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4682</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>8</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>36.90%</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4685</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4711</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>8</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>3.35%</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4713</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>8</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>3.61%</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4717</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>8</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>2.03%</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4734</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>7</v>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
     </row>

--- a/bin/sheets/main_db/teams/BAN/PlayerPerformance_4598.xlsx
+++ b/bin/sheets/main_db/teams/BAN/PlayerPerformance_4598.xlsx
@@ -11,6 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6871,15 +6872,485 @@
           <t>4538</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4539</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>8</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>3.13%</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4550</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>8</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>6.05%</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4557</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>8</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>19.59%</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4559</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>8</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4606</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4611</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>7</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4616</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>8</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4626</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>8</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4627</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>7</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>5.17%</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4628</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>7</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>5.47%</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4679</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>8</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>20.32%</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4682</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>8</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>36.90%</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4685</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4711</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>8</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>3.35%</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4713</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>8</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>3.61%</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4717</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>8</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>2.03%</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4734</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>7</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>MAIDEN_OVERS</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_WICKETS_OF_ALL</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4479</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4537</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4538</t>
+        </is>
+      </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -6887,27 +7358,14 @@
           <t>4539</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>8</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>3.13%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>20.00%</t>
         </is>
       </c>
     </row>
@@ -6917,27 +7375,14 @@
           <t>4550</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>8</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>6.05%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>40.00%</t>
         </is>
       </c>
     </row>
@@ -6947,27 +7392,14 @@
           <t>4557</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>8</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>19.59%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -6977,15 +7409,14 @@
           <t>4559</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>8</v>
-      </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -6997,13 +7428,6 @@
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7011,15 +7435,14 @@
           <t>4611</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>7</v>
-      </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>40.00%</t>
         </is>
       </c>
     </row>
@@ -7029,17 +7452,12 @@
           <t>4616</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>8</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -7047,15 +7465,14 @@
           <t>4626</t>
         </is>
       </c>
-      <c r="B12" t="n">
-        <v>8</v>
-      </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -7065,27 +7482,14 @@
           <t>4627</t>
         </is>
       </c>
-      <c r="B13" t="n">
-        <v>7</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>5.17%</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>20.00%</t>
         </is>
       </c>
     </row>
@@ -7095,27 +7499,14 @@
           <t>4628</t>
         </is>
       </c>
-      <c r="B14" t="n">
-        <v>7</v>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>5.47%</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -7125,27 +7516,14 @@
           <t>4679</t>
         </is>
       </c>
-      <c r="B15" t="n">
-        <v>8</v>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>20.32%</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>YES</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -7155,27 +7533,14 @@
           <t>4682</t>
         </is>
       </c>
-      <c r="B16" t="n">
-        <v>8</v>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>36.90%</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>YES</t>
+          <t>20.00%</t>
         </is>
       </c>
     </row>
@@ -7187,13 +7552,6 @@
       </c>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -7201,27 +7559,14 @@
           <t>4711</t>
         </is>
       </c>
-      <c r="B18" t="n">
-        <v>8</v>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>3.35%</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>20.00%</t>
         </is>
       </c>
     </row>
@@ -7231,27 +7576,14 @@
           <t>4713</t>
         </is>
       </c>
-      <c r="B19" t="n">
-        <v>8</v>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>3.61%</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>20.00%</t>
         </is>
       </c>
     </row>
@@ -7261,27 +7593,14 @@
           <t>4717</t>
         </is>
       </c>
-      <c r="B20" t="n">
-        <v>8</v>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>2.03%</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -7291,17 +7610,12 @@
           <t>4734</t>
         </is>
       </c>
-      <c r="B21" t="n">
-        <v>7</v>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/BAN/PlayerPerformance_4598.xlsx
+++ b/bin/sheets/main_db/teams/BAN/PlayerPerformance_4598.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -617,7 +616,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -6872,6 +6871,10 @@
           <t>4538</t>
         </is>
       </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
           <t>NO</t>
@@ -6977,6 +6980,9 @@
       <c r="B8" t="n">
         <v>8</v>
       </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
           <t>NO</t>
@@ -6989,6 +6995,10 @@
           <t>4606</t>
         </is>
       </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
           <t>NO</t>
@@ -7004,6 +7014,9 @@
       <c r="B10" t="n">
         <v>7</v>
       </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
           <t>NO</t>
@@ -7019,6 +7032,9 @@
       <c r="B11" t="n">
         <v>8</v>
       </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
           <t>NO</t>
@@ -7034,6 +7050,9 @@
       <c r="B12" t="n">
         <v>8</v>
       </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
           <t>NO</t>
@@ -7166,6 +7185,10 @@
           <t>4685</t>
         </is>
       </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
           <t>NO</t>
@@ -7271,351 +7294,14 @@
       <c r="B21" t="n">
         <v>7</v>
       </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>MAIDEN_OVERS</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_WICKETS_OF_ALL</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4479</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4537</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4538</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4539</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4550</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>40.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4557</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4559</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4606</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4611</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>40.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4616</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4626</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4627</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4628</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4679</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4682</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4685</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4711</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4713</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4717</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4734</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/BAN/PlayerPerformance_4598.xlsx
+++ b/bin/sheets/main_db/teams/BAN/PlayerPerformance_4598.xlsx
@@ -10,7 +10,6 @@
     <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -557,6 +556,7 @@
           <t>1</t>
         </is>
       </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
           <t>25/03/2017</t>
@@ -604,6 +604,7 @@
           <t>2</t>
         </is>
       </c>
+      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
           <t>28/03/2017</t>
@@ -703,6 +704,7 @@
           <t>4</t>
         </is>
       </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
           <t>12/05/2017</t>
@@ -958,6 +960,7 @@
           <t>9</t>
         </is>
       </c>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
           <t>22/07/2018</t>
@@ -1005,6 +1008,7 @@
           <t>10</t>
         </is>
       </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
           <t>25/07/2018</t>
@@ -1052,6 +1056,7 @@
           <t>11</t>
         </is>
       </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
           <t>28/07/2018</t>
@@ -1463,6 +1468,7 @@
           <t>19</t>
         </is>
       </c>
+      <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr">
         <is>
           <t>24/10/2018</t>
@@ -1510,6 +1516,7 @@
           <t>20</t>
         </is>
       </c>
+      <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr">
         <is>
           <t>09/12/2018</t>
@@ -1609,6 +1616,7 @@
           <t>22</t>
         </is>
       </c>
+      <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr">
         <is>
           <t>14/12/2018</t>
@@ -1812,6 +1820,7 @@
           <t>26</t>
         </is>
       </c>
+      <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr">
         <is>
           <t>07/05/2019</t>
@@ -1859,6 +1868,7 @@
           <t>27</t>
         </is>
       </c>
+      <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr">
         <is>
           <t>13/05/2019</t>
@@ -1906,6 +1916,7 @@
           <t>28</t>
         </is>
       </c>
+      <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr">
         <is>
           <t>17/05/2019</t>
@@ -2109,6 +2120,7 @@
           <t>32</t>
         </is>
       </c>
+      <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr">
         <is>
           <t>17/06/2019</t>
@@ -2208,6 +2220,7 @@
           <t>34</t>
         </is>
       </c>
+      <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr">
         <is>
           <t>24/06/2019</t>
@@ -2567,6 +2580,7 @@
           <t>41</t>
         </is>
       </c>
+      <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr">
         <is>
           <t>06/03/2020</t>
@@ -2614,6 +2628,7 @@
           <t>42</t>
         </is>
       </c>
+      <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr">
         <is>
           <t>20/01/2021</t>
@@ -2661,6 +2676,7 @@
           <t>43</t>
         </is>
       </c>
+      <c r="B44" t="inlineStr"/>
       <c r="C44" t="inlineStr">
         <is>
           <t>22/01/2021</t>
@@ -2708,6 +2724,7 @@
           <t>44</t>
         </is>
       </c>
+      <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr">
         <is>
           <t>25/01/2021</t>
@@ -2807,6 +2824,7 @@
           <t>46</t>
         </is>
       </c>
+      <c r="B47" t="inlineStr"/>
       <c r="C47" t="inlineStr">
         <is>
           <t>23/03/2021</t>
@@ -2906,6 +2924,7 @@
           <t>48</t>
         </is>
       </c>
+      <c r="B49" t="inlineStr"/>
       <c r="C49" t="inlineStr">
         <is>
           <t>23/05/2021</t>
@@ -3213,6 +3232,7 @@
           <t>54</t>
         </is>
       </c>
+      <c r="B55" t="inlineStr"/>
       <c r="C55" t="inlineStr">
         <is>
           <t>25/02/2022</t>
@@ -3416,6 +3436,7 @@
           <t>58</t>
         </is>
       </c>
+      <c r="B59" t="inlineStr"/>
       <c r="C59" t="inlineStr">
         <is>
           <t>23/03/2022</t>
@@ -3463,6 +3484,7 @@
           <t>59</t>
         </is>
       </c>
+      <c r="B60" t="inlineStr"/>
       <c r="C60" t="inlineStr">
         <is>
           <t>10/07/2022</t>
@@ -3510,6 +3532,7 @@
           <t>60</t>
         </is>
       </c>
+      <c r="B61" t="inlineStr"/>
       <c r="C61" t="inlineStr">
         <is>
           <t>13/07/2022</t>
@@ -3557,6 +3580,7 @@
           <t>61</t>
         </is>
       </c>
+      <c r="B62" t="inlineStr"/>
       <c r="C62" t="inlineStr">
         <is>
           <t>16/07/2022</t>
@@ -3604,6 +3628,7 @@
           <t>62</t>
         </is>
       </c>
+      <c r="B63" t="inlineStr"/>
       <c r="C63" t="inlineStr">
         <is>
           <t>05/08/2022</t>
@@ -4067,6 +4092,7 @@
           <t>71</t>
         </is>
       </c>
+      <c r="B72" t="inlineStr"/>
       <c r="C72" t="inlineStr">
         <is>
           <t>23/03/2023</t>
@@ -6757,553 +6783,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>BATTING_POSITION</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_4</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_6</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_RUNS_OF_TOTAL</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>MAN_OF_MATCH</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4479</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>7</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>2.48%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4537</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>8</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>36.99%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4538</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4539</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>8</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>3.13%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4550</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>8</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>6.05%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4557</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>8</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>19.59%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4559</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>8</v>
-      </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4606</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4611</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>7</v>
-      </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4616</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>8</v>
-      </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4626</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>8</v>
-      </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4627</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>7</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>5.17%</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4628</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>7</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>5.47%</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4679</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>8</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>20.32%</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4682</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>8</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>36.90%</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4685</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4711</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>8</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>3.35%</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4713</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>8</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>3.61%</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4717</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>8</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>2.03%</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4734</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>7</v>
-      </c>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>